--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42971,6 +42971,41 @@
         <v>247100</v>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>227400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43006,6 +43006,41 @@
         <v>227400</v>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>88700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43041,6 +43041,41 @@
         <v>88700</v>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>98800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43076,6 +43076,41 @@
         <v>98800</v>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>115900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43111,6 +43111,41 @@
         <v>115900</v>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>260400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43146,6 +43146,41 @@
         <v>260400</v>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>80000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43181,6 +43181,41 @@
         <v>80000</v>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43216,6 +43216,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>7500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43251,6 +43251,41 @@
         <v>7500</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>581600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43286,6 +43286,41 @@
         <v>581600</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>51600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43321,6 +43321,41 @@
         <v>51600</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43356,6 +43356,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>122000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43391,6 +43391,76 @@
         <v>122000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>417000</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>479000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43461,6 +43461,76 @@
         <v>479000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>2133700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43531,6 +43531,41 @@
         <v>2133700</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>308200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43566,6 +43566,41 @@
         <v>308200</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>1556300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43601,6 +43601,41 @@
         <v>1556300</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>279600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43636,6 +43636,41 @@
         <v>279600</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>227300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43671,6 +43671,76 @@
         <v>227300</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>2741300</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>89800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43741,6 +43741,43 @@
         <v>89800</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43778,6 +43778,41 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>313000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2561"/>
+  <dimension ref="A1:I2562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90433,6 +90433,41 @@
         <v>313000</v>
       </c>
     </row>
+    <row r="2562">
+      <c r="A2562" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2562" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2562" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D2562" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E2562" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2562" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2562" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2562" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I2562" t="n">
+        <v>315000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2562"/>
+  <dimension ref="A1:I2563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90468,6 +90468,41 @@
         <v>315000</v>
       </c>
     </row>
+    <row r="2563">
+      <c r="A2563" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2563" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2563" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D2563" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E2563" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2563" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G2563" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2563" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2563" t="n">
+        <v>151800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2563"/>
+  <dimension ref="A1:I2564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90503,6 +90503,43 @@
         <v>151800</v>
       </c>
     </row>
+    <row r="2564">
+      <c r="A2564" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2564" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2564" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D2564" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E2564" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F2564" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G2564" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H2564" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2564" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2564"/>
+  <dimension ref="A1:I2565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90540,6 +90540,41 @@
         </is>
       </c>
     </row>
+    <row r="2565">
+      <c r="A2565" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2565" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2565" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D2565" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E2565" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2565" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2565" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2565" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I2565" t="n">
+        <v>130000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2565"/>
+  <dimension ref="A1:I2566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90575,6 +90575,41 @@
         <v>130000</v>
       </c>
     </row>
+    <row r="2566">
+      <c r="A2566" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2566" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2566" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D2566" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E2566" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F2566" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2566" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H2566" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I2566" t="n">
+        <v>184900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2566"/>
+  <dimension ref="A1:I2567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90610,6 +90610,41 @@
         <v>184900</v>
       </c>
     </row>
+    <row r="2567">
+      <c r="A2567" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2567" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2567" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D2567" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E2567" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F2567" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2567" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H2567" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I2567" t="n">
+        <v>69500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2567"/>
+  <dimension ref="A1:I2568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90645,6 +90645,41 @@
         <v>69500</v>
       </c>
     </row>
+    <row r="2568">
+      <c r="A2568" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2568" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2568" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D2568" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E2568" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2568" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2568" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H2568" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2568" t="n">
+        <v>124000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2568"/>
+  <dimension ref="A1:I2569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90680,6 +90680,41 @@
         <v>124000</v>
       </c>
     </row>
+    <row r="2569">
+      <c r="A2569" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2569" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2569" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D2569" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E2569" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2569" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2569" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2569" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2569" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2569"/>
+  <dimension ref="A1:I2570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90715,6 +90715,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="2570">
+      <c r="A2570" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2570" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2570" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D2570" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E2570" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2570" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2570" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2570" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2570" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2570"/>
+  <dimension ref="A1:I2571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90750,6 +90750,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2571">
+      <c r="A2571" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2571" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2571" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D2571" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E2571" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2571" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G2571" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2571" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2571" t="n">
+        <v>56000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2571"/>
+  <dimension ref="A1:I2572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90785,6 +90785,43 @@
         <v>56000</v>
       </c>
     </row>
+    <row r="2572">
+      <c r="A2572" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2572" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2572" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D2572" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E2572" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F2572" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G2572" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H2572" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2572" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2572"/>
+  <dimension ref="A1:I2573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90822,6 +90822,41 @@
         </is>
       </c>
     </row>
+    <row r="2573">
+      <c r="A2573" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2573" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2573" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D2573" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E2573" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2573" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G2573" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2573" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2573" t="n">
+        <v>77900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2573"/>
+  <dimension ref="A1:I2574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90857,6 +90857,43 @@
         <v>77900</v>
       </c>
     </row>
+    <row r="2574">
+      <c r="A2574" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2574" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2574" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D2574" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E2574" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F2574" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G2574" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H2574" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2574" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2574"/>
+  <dimension ref="A1:I2575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90894,6 +90894,41 @@
         </is>
       </c>
     </row>
+    <row r="2575">
+      <c r="A2575" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2575" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2575" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D2575" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E2575" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2575" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G2575" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2575" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2575" t="n">
+        <v>11100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7187.xlsx
+++ b/data/7187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2575"/>
+  <dimension ref="A1:I2576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90929,6 +90929,41 @@
         <v>11100</v>
       </c>
     </row>
+    <row r="2576">
+      <c r="A2576" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2576" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2576" t="inlineStr">
+        <is>
+          <t>7187</t>
+        </is>
+      </c>
+      <c r="D2576" t="inlineStr">
+        <is>
+          <t>CHGP</t>
+        </is>
+      </c>
+      <c r="E2576" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F2576" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G2576" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H2576" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2576" t="n">
+        <v>42000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
